--- a/Data files/ConnAutoTestClient.xlsx
+++ b/Data files/ConnAutoTestClient.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shehs\PycharmProjects\pyTest\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11933B5-DD75-4728-8721-E67E35BB2683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5AA02D-F41E-46E5-AB0C-F29E14FF856B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>Фамилия</t>
   </si>
@@ -54,22 +54,254 @@
     <t>Дата рождения</t>
   </si>
   <si>
-    <t>Специалист по контекстной рекламе</t>
-  </si>
-  <si>
-    <t>375 29 609-63-38</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Иванович</t>
-  </si>
-  <si>
-    <t>qwer@mail.ru</t>
+    <t>Зимонин</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>Сергеевич</t>
+  </si>
+  <si>
+    <t>Руководитель отдела технологии и внедрения систем регистрации</t>
+  </si>
+  <si>
+    <t>I.zimonin@ors.aero</t>
+  </si>
+  <si>
+    <t>Леденев</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Олегович</t>
+  </si>
+  <si>
+    <t>Заместитель руководителя отдела по интеграциям</t>
+  </si>
+  <si>
+    <t>a.ledenev@ors.aero</t>
+  </si>
+  <si>
+    <t>Лучников</t>
+  </si>
+  <si>
+    <t>Владислав</t>
+  </si>
+  <si>
+    <t>Анатольевич</t>
+  </si>
+  <si>
+    <t>Руководитель отдела систем управления ресурсом и расписанием</t>
+  </si>
+  <si>
+    <t>v.luchnikov@ors.aero</t>
+  </si>
+  <si>
+    <t>Воронина</t>
+  </si>
+  <si>
+    <t>Юлия</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>Ведущий технолог</t>
+  </si>
+  <si>
+    <t>y.voronina@ors.aero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Киселев </t>
+  </si>
+  <si>
+    <t>Владимир</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>Руководитель отдела тестирования</t>
+  </si>
+  <si>
+    <t>v.kiselev@ors.aero</t>
+  </si>
+  <si>
+    <t>Захаренко</t>
+  </si>
+  <si>
+    <t>Полина</t>
+  </si>
+  <si>
+    <t>Дмитриевна</t>
+  </si>
+  <si>
+    <t>Руководитель отдела бронирования и тикетинга</t>
+  </si>
+  <si>
+    <t>p.zakharenko@ors.aero</t>
+  </si>
+  <si>
+    <t>Лозовой</t>
+  </si>
+  <si>
+    <t>Руслан</t>
+  </si>
+  <si>
+    <t>Русланович</t>
+  </si>
+  <si>
+    <t>Заместитель руководителя отдела бронирования и тикетинга по клиентской разработке</t>
+  </si>
+  <si>
+    <t>r.lozovoi@ors.aero</t>
+  </si>
+  <si>
+    <t>Ким</t>
+  </si>
+  <si>
+    <t>Дмитрий</t>
+  </si>
+  <si>
+    <t>Вадимович</t>
+  </si>
+  <si>
+    <t>Заместитель руководителя отдела</t>
+  </si>
+  <si>
+    <t>d.kim@ors.aero</t>
+  </si>
+  <si>
+    <t>Жураковский</t>
+  </si>
+  <si>
+    <t>Алексей</t>
+  </si>
+  <si>
+    <t>Валерьевич</t>
+  </si>
+  <si>
+    <t>Руководитель департамента системного анализа</t>
+  </si>
+  <si>
+    <t>a.zhurakovskiy@ors.aero</t>
+  </si>
+  <si>
+    <t>Соколова</t>
+  </si>
+  <si>
+    <t>Наталья</t>
+  </si>
+  <si>
+    <t>Вячеславовна</t>
+  </si>
+  <si>
+    <t>Руководитель отдела разработки SIG</t>
+  </si>
+  <si>
+    <t>n.sokolova@ors.aero</t>
+  </si>
+  <si>
+    <t>Карпухина</t>
+  </si>
+  <si>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t>Александровна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заместитель руководителя отдела эксплуатации базы данных </t>
+  </si>
+  <si>
+    <t>a.karpukhina@ors.aero</t>
+  </si>
+  <si>
+    <t>Казанцев</t>
+  </si>
+  <si>
+    <t>Петр</t>
+  </si>
+  <si>
+    <t>Заместитель руководителя департамента электронной коммерции</t>
+  </si>
+  <si>
+    <t>p.kazantsev@ors.aero</t>
+  </si>
+  <si>
+    <t>Ловский</t>
+  </si>
+  <si>
+    <t>Владимирович</t>
+  </si>
+  <si>
+    <t>Руководитель департамента электронной коммерции</t>
+  </si>
+  <si>
+    <t>a.lovskiy@ors.aero</t>
+  </si>
+  <si>
+    <t>Кочетков</t>
+  </si>
+  <si>
+    <t>Глеб</t>
+  </si>
+  <si>
+    <t>Николаевич</t>
+  </si>
+  <si>
+    <t>Руководитель отдела тестирования ПО</t>
+  </si>
+  <si>
+    <t>g.kochetkov@ors.aero</t>
+  </si>
+  <si>
+    <t>Лозовский</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Руководитель отдела инфраструктуры</t>
+  </si>
+  <si>
+    <t>a.lozovskiy@ors.aero</t>
+  </si>
+  <si>
+    <t>Васильев</t>
+  </si>
+  <si>
+    <t>Александрович</t>
+  </si>
+  <si>
+    <t>Заместитель руководителя по инфраструктуре</t>
+  </si>
+  <si>
+    <t>a.vasiliev@ors.aero</t>
+  </si>
+  <si>
+    <t>Сердюк</t>
+  </si>
+  <si>
+    <t>Руководитель проектного офиса</t>
+  </si>
+  <si>
+    <t>v.serdyuk@ors.aero
+project-manager@ors.aero</t>
+  </si>
+  <si>
+    <t>Шеховцов</t>
+  </si>
+  <si>
+    <t>Владиславович</t>
+  </si>
+  <si>
+    <t>Руководитель службы клиентской поддержки / Замместитель руководителя ДВСР</t>
+  </si>
+  <si>
+    <t>a.shekhovtsov@ors.aero</t>
   </si>
 </sst>
 </file>
@@ -79,7 +311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,66 +334,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -169,59 +351,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -500,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,13 +656,13 @@
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="84.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,7 +681,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -547,98 +691,419 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="12" t="s">
+      <c r="G2">
+        <v>79996791077</v>
+      </c>
+      <c r="I2" s="4">
+        <v>35627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>666</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <v>111</v>
-      </c>
-      <c r="I2" s="4">
-        <v>31151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>79267363780</v>
       </c>
       <c r="I3" s="4">
-        <v>31151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
-      <c r="G4" s="7"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="G5" s="7"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
-      <c r="G6" s="7"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="G7" s="7"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="2"/>
-      <c r="G8" s="7"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+        <v>34698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>79127015669</v>
+      </c>
+      <c r="I4" s="4">
+        <v>33908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5">
+        <v>79056650877</v>
+      </c>
+      <c r="I5" s="4">
+        <v>32674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>79994423227</v>
+      </c>
+      <c r="I6" s="4">
+        <v>34560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7">
+        <v>79671521587</v>
+      </c>
+      <c r="I7" s="4">
+        <v>33107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>79296096361</v>
+      </c>
+      <c r="I8" s="4">
+        <v>35295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9">
+        <v>79878080477</v>
+      </c>
+      <c r="I9" s="4">
+        <v>33506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <v>79265304763</v>
+      </c>
+      <c r="I10" s="4">
+        <v>31176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11">
+        <v>79997996241</v>
+      </c>
+      <c r="I11" s="4">
+        <v>32334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12">
+        <v>79013377520</v>
+      </c>
+      <c r="I12" s="4">
+        <v>31561</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13">
+        <v>79261766711</v>
+      </c>
+      <c r="I13" s="4">
+        <v>32990</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14">
+        <v>79661287558</v>
+      </c>
+      <c r="I14" s="4">
+        <v>32518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <v>79296631920</v>
+      </c>
+      <c r="I15" s="4">
+        <v>35473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16">
+        <v>79266366066</v>
+      </c>
+      <c r="I16" s="4">
+        <v>32518</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17">
+        <v>79268553444</v>
+      </c>
+      <c r="I17" s="4">
+        <v>30522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18">
+        <v>79037266970</v>
+      </c>
+      <c r="I18" s="4">
+        <v>28512</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19">
+        <v>79167630005</v>
+      </c>
+      <c r="I19" s="4">
+        <v>31134</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data files/ConnAutoTestClient.xlsx
+++ b/Data files/ConnAutoTestClient.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shehs\PycharmProjects\pyTest\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A4E2C4-56DE-40DC-A9B7-BBB713CB7EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9504B344-4FDC-4D2D-84D3-246EA20FF4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
   <si>
     <t>Фамилия</t>
   </si>
@@ -54,19 +54,292 @@
     <t>Дата рождения</t>
   </si>
   <si>
-    <t>Владислав</t>
-  </si>
-  <si>
-    <t>Анатольевич</t>
-  </si>
-  <si>
-    <t>Сердюк</t>
-  </si>
-  <si>
-    <t>Руководитель проектного офиса</t>
-  </si>
-  <si>
-    <t>v.serdyuk@ors.aero</t>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>Игоревна</t>
+  </si>
+  <si>
+    <t>Менеджер по работе с партнёрами</t>
+  </si>
+  <si>
+    <t>Александровна</t>
+  </si>
+  <si>
+    <t>Владимирович</t>
+  </si>
+  <si>
+    <t>Евгения</t>
+  </si>
+  <si>
+    <t>Цой</t>
+  </si>
+  <si>
+    <t>Артур</t>
+  </si>
+  <si>
+    <t>Специалист по закупкам мобильной рекламы</t>
+  </si>
+  <si>
+    <t>Баранова</t>
+  </si>
+  <si>
+    <t>Адисса</t>
+  </si>
+  <si>
+    <t>Мункобаировна</t>
+  </si>
+  <si>
+    <t>Partner Success Manager</t>
+  </si>
+  <si>
+    <t>Кузнецов</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Директор по продажам</t>
+  </si>
+  <si>
+    <t>Цветнова</t>
+  </si>
+  <si>
+    <t>Анастасия</t>
+  </si>
+  <si>
+    <t>Руководитель направления внешних коммуникаций</t>
+  </si>
+  <si>
+    <t>Мхитарян</t>
+  </si>
+  <si>
+    <t>Мариета</t>
+  </si>
+  <si>
+    <t>Оганесовна</t>
+  </si>
+  <si>
+    <t>Менеджер по таргетированной рекламе</t>
+  </si>
+  <si>
+    <t>Рубанова</t>
+  </si>
+  <si>
+    <t>Эльвира</t>
+  </si>
+  <si>
+    <t>Владимировна</t>
+  </si>
+  <si>
+    <t>Младший менеджер по контекстной рекламе</t>
+  </si>
+  <si>
+    <t>Назаргелдиева</t>
+  </si>
+  <si>
+    <t>Човдурбаевна</t>
+  </si>
+  <si>
+    <t>Старший аккаунт менеджер</t>
+  </si>
+  <si>
+    <t>Дергачева</t>
+  </si>
+  <si>
+    <t>Елизавета</t>
+  </si>
+  <si>
+    <t>Валерьевна</t>
+  </si>
+  <si>
+    <t>Младший аккаунт менеджер</t>
+  </si>
+  <si>
+    <t>Иванова</t>
+  </si>
+  <si>
+    <t>Алина</t>
+  </si>
+  <si>
+    <t>Мансуровна</t>
+  </si>
+  <si>
+    <t>Аккаунт-директор</t>
+  </si>
+  <si>
+    <t>Кончева</t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>Старший менеджер по работе с партнёрами</t>
+  </si>
+  <si>
+    <t>Леонова</t>
+  </si>
+  <si>
+    <t>Елена</t>
+  </si>
+  <si>
+    <t>Махова</t>
+  </si>
+  <si>
+    <t>Викторовна</t>
+  </si>
+  <si>
+    <t>Менеджер по документообороту</t>
+  </si>
+  <si>
+    <t>Жихарева</t>
+  </si>
+  <si>
+    <t>Кристина</t>
+  </si>
+  <si>
+    <t>Юрьевна</t>
+  </si>
+  <si>
+    <t>Флоря</t>
+  </si>
+  <si>
+    <t>Тина</t>
+  </si>
+  <si>
+    <t>Дерябин</t>
+  </si>
+  <si>
+    <t>Федор</t>
+  </si>
+  <si>
+    <t>Юрьевич</t>
+  </si>
+  <si>
+    <t>Руководитель группы по работе с партнёрами</t>
+  </si>
+  <si>
+    <t>Сучков</t>
+  </si>
+  <si>
+    <t>Артемий</t>
+  </si>
+  <si>
+    <t>Максимович</t>
+  </si>
+  <si>
+    <t>Менеджер проектов</t>
+  </si>
+  <si>
+    <t>Кондратьева</t>
+  </si>
+  <si>
+    <t>Павловна</t>
+  </si>
+  <si>
+    <t>Аккаунт менеджер</t>
+  </si>
+  <si>
+    <t>Постоева</t>
+  </si>
+  <si>
+    <t>Оксана</t>
+  </si>
+  <si>
+    <t>Геннадьевна</t>
+  </si>
+  <si>
+    <t>Саввина</t>
+  </si>
+  <si>
+    <t>Юлия</t>
+  </si>
+  <si>
+    <t>Медиа баинг директор</t>
+  </si>
+  <si>
+    <t>Макаров</t>
+  </si>
+  <si>
+    <t>Станислав</t>
+  </si>
+  <si>
+    <t>Разработчик</t>
+  </si>
+  <si>
+    <t>Веркеенко</t>
+  </si>
+  <si>
+    <t>Наталья</t>
+  </si>
+  <si>
+    <t>Главный бухгалтер (Tactio)</t>
+  </si>
+  <si>
+    <t>Клюжева</t>
+  </si>
+  <si>
+    <t>Координатор проекта Online-образования</t>
+  </si>
+  <si>
+    <t>Зырянова</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>Финансовый менеджер</t>
+  </si>
+  <si>
+    <t>Богушевский</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Леонидович</t>
+  </si>
+  <si>
+    <t>Юрисконсульт</t>
+  </si>
+  <si>
+    <t>Тимофеев</t>
+  </si>
+  <si>
+    <t>Игорь</t>
+  </si>
+  <si>
+    <t>Андриянович</t>
+  </si>
+  <si>
+    <t>Менеджер по контекстной рекламе</t>
+  </si>
+  <si>
+    <t>Шапарев</t>
+  </si>
+  <si>
+    <t>Евгений</t>
+  </si>
+  <si>
+    <t>Контент менеджер</t>
+  </si>
+  <si>
+    <t>Мещерякова</t>
+  </si>
+  <si>
+    <t>Наталия</t>
+  </si>
+  <si>
+    <t>Ведущий менеджер проектов</t>
+  </si>
+  <si>
+    <t>Утанова</t>
+  </si>
+  <si>
+    <t>Азиза</t>
+  </si>
+  <si>
+    <t>Менеджер по работе с персоналом</t>
   </si>
 </sst>
 </file>
@@ -76,7 +349,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,18 +372,76 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -120,13 +451,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -407,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D2" sqref="D2:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +785,7 @@
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,27 +814,553 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3">
+        <v>79274988941</v>
+      </c>
+      <c r="I2" s="7">
+        <v>34896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3">
+        <v>79163219018</v>
+      </c>
+      <c r="I3" s="7">
+        <v>32113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3">
+        <v>79653452388</v>
+      </c>
+      <c r="I4" s="7">
+        <v>28680</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3">
+        <v>79266638948</v>
+      </c>
+      <c r="I5" s="7">
+        <v>33616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="3">
+        <v>79254544605</v>
+      </c>
+      <c r="I6" s="7">
+        <v>35319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3">
+        <v>79060776322</v>
+      </c>
+      <c r="I7" s="7">
+        <v>31992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="3">
+        <v>79043942137</v>
+      </c>
+      <c r="I8" s="7">
+        <v>36148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="3">
+        <v>79045913529</v>
+      </c>
+      <c r="I9" s="7">
+        <v>37069</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="3">
+        <v>79055087003</v>
+      </c>
+      <c r="I10" s="7">
+        <v>33239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="3">
+        <v>79619180938</v>
+      </c>
+      <c r="I11" s="7">
+        <v>33269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G12" s="3">
+        <v>79110205782</v>
+      </c>
+      <c r="I12" s="7">
+        <v>31554</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="3">
+        <v>79629232569</v>
+      </c>
+      <c r="I13" s="7">
+        <v>33593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="3">
+        <v>79060666896</v>
+      </c>
+      <c r="I14" s="7">
+        <v>33916</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="3">
+        <v>79165771048</v>
+      </c>
+      <c r="I15" s="7">
+        <v>33981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="3">
+        <v>79214451306</v>
+      </c>
+      <c r="I16" s="7">
+        <v>34410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="3">
+        <v>79169304236</v>
+      </c>
+      <c r="I17" s="7">
+        <v>36427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="3">
+        <v>79875336360</v>
+      </c>
+      <c r="I18" s="7">
+        <v>36958</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G19" s="3">
+        <v>79217693588</v>
+      </c>
+      <c r="I19" s="7">
+        <v>32683</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="3">
+        <v>79161173768</v>
+      </c>
+      <c r="I20" s="7">
+        <v>31531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="E21" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="3">
+        <v>79266056128</v>
+      </c>
+      <c r="I21" s="7">
+        <v>32668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="3">
+        <v>79165536055</v>
+      </c>
+      <c r="I22" s="7">
+        <v>28127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G23" s="3">
+        <v>79620800072</v>
+      </c>
+      <c r="I23" s="7">
+        <v>32996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" s="3">
+        <v>79162983640</v>
+      </c>
+      <c r="I24" s="7">
+        <v>32115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="3">
+        <v>79253178883</v>
+      </c>
+      <c r="I25" s="4">
+        <v>31283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="3">
+        <v>79063809382</v>
+      </c>
+      <c r="I26" s="4">
+        <v>33318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="4">
+        <v>30490</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>79037266970</v>
-      </c>
-      <c r="I2" s="4">
-        <v>28512</v>
+      <c r="E28" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="3">
+        <v>79277002804</v>
+      </c>
+      <c r="I28" s="4">
+        <v>34353</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="3">
+        <v>79771227186</v>
+      </c>
+      <c r="I29" s="4">
+        <v>33885</v>
       </c>
     </row>
   </sheetData>

--- a/Data files/ConnAutoTestClient.xlsx
+++ b/Data files/ConnAutoTestClient.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shehs\PycharmProjects\pyTest\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9504B344-4FDC-4D2D-84D3-246EA20FF4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10123BE7-0338-4987-9443-6994034FDE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
   <si>
     <t>Фамилия</t>
   </si>
@@ -340,6 +340,15 @@
   </si>
   <si>
     <t>Менеджер по работе с персоналом</t>
+  </si>
+  <si>
+    <t>g2@gmail.com</t>
+  </si>
+  <si>
+    <t>g2df@gmail.com</t>
+  </si>
+  <si>
+    <t>gd2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -451,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -487,6 +496,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -770,7 +780,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D32"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,6 +834,9 @@
       <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="D2" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
@@ -844,6 +857,9 @@
       <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="D3" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
@@ -863,6 +879,9 @@
       </c>
       <c r="C4" s="8" t="s">
         <v>13</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>24</v>

--- a/Data files/ConnAutoTestClient.xlsx
+++ b/Data files/ConnAutoTestClient.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shehs\PycharmProjects\pyTest\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10123BE7-0338-4987-9443-6994034FDE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945CD9AD-3C3E-437A-A64C-EE9C0205E55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="110">
   <si>
     <t>Фамилия</t>
   </si>
@@ -342,13 +342,19 @@
     <t>Менеджер по работе с персоналом</t>
   </si>
   <si>
-    <t>g2@gmail.com</t>
-  </si>
-  <si>
-    <t>g2df@gmail.com</t>
-  </si>
-  <si>
-    <t>gd2@gmail.com</t>
+    <t>gывмd2@gmail.com</t>
+  </si>
+  <si>
+    <t>gdвы2@gmail.com</t>
+  </si>
+  <si>
+    <t>g2defweasdff@gmail.com</t>
+  </si>
+  <si>
+    <t>ggу24qwefadываerd2@gmail.com</t>
+  </si>
+  <si>
+    <t>gsцукdfцывукыацукеfgwer2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -780,7 +786,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,13 +841,19 @@
         <v>13</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="F2">
+        <v>234</v>
+      </c>
       <c r="G2" s="3">
         <v>79274988941</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
       </c>
       <c r="I2" s="7">
         <v>34896</v>
@@ -857,14 +869,17 @@
       <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>106</v>
+      <c r="D3" t="s">
+        <v>107</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="3">
         <v>79163219018</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
       </c>
       <c r="I3" s="7">
         <v>32113</v>
@@ -881,13 +896,19 @@
         <v>13</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="F4">
+        <v>234</v>
+      </c>
       <c r="G4" s="3">
         <v>79653452388</v>
+      </c>
+      <c r="H4">
+        <v>234</v>
       </c>
       <c r="I4" s="7">
         <v>28680</v>
@@ -903,6 +924,9 @@
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
       <c r="E5" s="6" t="s">
         <v>27</v>
       </c>
@@ -922,6 +946,9 @@
       </c>
       <c r="C6" s="9" t="s">
         <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>31</v>
